--- a/融资/A轮/表单.xlsx
+++ b/融资/A轮/表单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>###当天上班状态###</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
   </si>
   <si>
     <t>剩余（吨）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加油机数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -480,9 +476,8 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -564,7 +559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -581,67 +576,64 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
         <v>20</v>
       </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="1">
+      <c r="F18" s="1">
         <v>6.02</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>14</v>
       </c>
